--- a/data/landings/cdfw/public/fish_bulletins/raw/fb135/raw/Table17.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb135/raw/Table17.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb135/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7893A8-2EF9-2F4B-98C3-A26DEC5147B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4717D28B-08F2-4A4F-B6FE-57B0AF9CF885}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21160" yWindow="460" windowWidth="19240" windowHeight="26500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -545,7 +545,7 @@
   <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -572,10 +572,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2">
         <v>3578648</v>
